--- a/Experiments/231212_pyc_HANDMIX/biosyn_mt_231121.xlsx
+++ b/Experiments/231212_pyc_HANDMIX/biosyn_mt_231121.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/GitHub/WHISPR/Experiments/231212_pyc_HANDMIX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA904B7-2A90-AF44-80EB-06809CAC3836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537E0557-A0EC-774C-9F15-269045DD5450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="1140" windowWidth="29240" windowHeight="16280" xr2:uid="{967C839E-5874-3E47-BD0B-8FC21FE1D91D}"/>
   </bookViews>
@@ -277,9 +277,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -317,7 +317,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -423,7 +423,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -565,7 +565,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08E3BE3-5F52-B64D-BE7C-91C563F6E064}">
   <dimension ref="A3:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="192" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
